--- a/data/pca/factorExposure/factorExposure_2018-03-01.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-03-01.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.006368742606573058</v>
+        <v>-0.01320068428636204</v>
       </c>
       <c r="C2">
-        <v>-0.0210966854541834</v>
+        <v>0.02844391049884923</v>
       </c>
       <c r="D2">
-        <v>0.01909629590663643</v>
+        <v>-0.02325547356586989</v>
       </c>
       <c r="E2">
-        <v>-0.009949047384721521</v>
+        <v>-0.0145265330307656</v>
       </c>
       <c r="F2">
-        <v>0.07631345540915885</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.01273756779406401</v>
+      </c>
+      <c r="G2">
+        <v>-0.007673782855804328</v>
+      </c>
+      <c r="H2">
+        <v>0.04374092762237152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.09020964650918493</v>
+        <v>-0.05618197330298565</v>
       </c>
       <c r="C3">
-        <v>-0.03794441777702044</v>
+        <v>0.07778538218735966</v>
       </c>
       <c r="D3">
-        <v>-0.003903314312733805</v>
+        <v>-0.003658994005841441</v>
       </c>
       <c r="E3">
-        <v>-0.04691142128160603</v>
+        <v>-0.05652726928921566</v>
       </c>
       <c r="F3">
-        <v>0.3030922414943411</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.04333747852221716</v>
+      </c>
+      <c r="G3">
+        <v>-0.01674685834239171</v>
+      </c>
+      <c r="H3">
+        <v>0.123778742711719</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.04271672824211359</v>
+        <v>-0.03242531533184715</v>
       </c>
       <c r="C4">
-        <v>-0.00468489568464914</v>
+        <v>0.06403495669264117</v>
       </c>
       <c r="D4">
-        <v>0.03058609061059463</v>
+        <v>-0.01624959389229158</v>
       </c>
       <c r="E4">
-        <v>0.03963387746153623</v>
+        <v>0.009328812580609582</v>
       </c>
       <c r="F4">
-        <v>0.06064808002175991</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.02238190399543633</v>
+      </c>
+      <c r="G4">
+        <v>-0.04601161026208734</v>
+      </c>
+      <c r="H4">
+        <v>0.05275763049913028</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.03613250099567594</v>
+        <v>-0.01701961024465601</v>
       </c>
       <c r="C6">
-        <v>-0.01195237149871613</v>
+        <v>0.06416396570153024</v>
       </c>
       <c r="D6">
-        <v>0.04095304951701648</v>
+        <v>-0.0112363373132389</v>
       </c>
       <c r="E6">
-        <v>0.02674661738278694</v>
+        <v>0.01733471842881778</v>
       </c>
       <c r="F6">
-        <v>0.02066865704840357</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.0009766943744909545</v>
+      </c>
+      <c r="G6">
+        <v>-0.02916077914391581</v>
+      </c>
+      <c r="H6">
+        <v>0.04818368024284779</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.04000327240112728</v>
+        <v>-0.005714480169557288</v>
       </c>
       <c r="C7">
-        <v>0.03422568147273455</v>
+        <v>0.0342033710383442</v>
       </c>
       <c r="D7">
-        <v>0.01806274598332405</v>
+        <v>-0.00989587183551895</v>
       </c>
       <c r="E7">
-        <v>0.01229782511705727</v>
+        <v>0.0232410097460247</v>
       </c>
       <c r="F7">
-        <v>0.02771782141566527</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.04362051084639915</v>
+      </c>
+      <c r="G7">
+        <v>0.002053794449223863</v>
+      </c>
+      <c r="H7">
+        <v>0.02622778456926248</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.01118727141931226</v>
+        <v>0.004590933216793261</v>
       </c>
       <c r="C8">
-        <v>0.007245207452322444</v>
+        <v>0.007534143532892922</v>
       </c>
       <c r="D8">
-        <v>0.03185154370069497</v>
+        <v>-0.001433086192931763</v>
       </c>
       <c r="E8">
-        <v>0.02990596112670171</v>
+        <v>0.0003154335112062889</v>
       </c>
       <c r="F8">
-        <v>0.05451631104681087</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.02083428303332002</v>
+      </c>
+      <c r="G8">
+        <v>-0.01728256580196143</v>
+      </c>
+      <c r="H8">
+        <v>0.02390857181714984</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.03342820930271145</v>
+        <v>-0.01823748411311338</v>
       </c>
       <c r="C9">
-        <v>-0.002489888799945065</v>
+        <v>0.04854099108148741</v>
       </c>
       <c r="D9">
-        <v>0.02739736496146264</v>
+        <v>-0.01099578530132656</v>
       </c>
       <c r="E9">
-        <v>0.01343812206108392</v>
+        <v>0.006801031322106831</v>
       </c>
       <c r="F9">
-        <v>0.07405591025519814</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.01560102870145889</v>
+      </c>
+      <c r="G9">
+        <v>-0.01895571772527036</v>
+      </c>
+      <c r="H9">
+        <v>0.05020233961872774</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.04711872196933758</v>
+        <v>-0.142372731919287</v>
       </c>
       <c r="C10">
-        <v>-0.01168413377133716</v>
+        <v>-0.1388272861248508</v>
       </c>
       <c r="D10">
-        <v>-0.1420182134430158</v>
+        <v>0.02126022973117501</v>
       </c>
       <c r="E10">
-        <v>-0.06446121531740462</v>
+        <v>-0.03214623660865629</v>
       </c>
       <c r="F10">
-        <v>0.0477304923051908</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.021627832145922</v>
+      </c>
+      <c r="G10">
+        <v>0.02713675668697464</v>
+      </c>
+      <c r="H10">
+        <v>-0.007471408831540813</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.02716422733276755</v>
+        <v>-0.01260836535138503</v>
       </c>
       <c r="C11">
-        <v>-0.01660240219473534</v>
+        <v>0.04966434258893498</v>
       </c>
       <c r="D11">
-        <v>0.03826270608607718</v>
+        <v>0.002142895696844707</v>
       </c>
       <c r="E11">
-        <v>0.02590418650839867</v>
+        <v>0.01114578897574759</v>
       </c>
       <c r="F11">
-        <v>0.02123968376324943</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.003722222717014529</v>
+      </c>
+      <c r="G11">
+        <v>-0.01453711902304727</v>
+      </c>
+      <c r="H11">
+        <v>0.04538418410584527</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.04004680888240688</v>
+        <v>-0.01779467016101323</v>
       </c>
       <c r="C12">
-        <v>-0.01605821371133576</v>
+        <v>0.04781941184191675</v>
       </c>
       <c r="D12">
-        <v>0.03394988973766358</v>
+        <v>-0.001535870520726222</v>
       </c>
       <c r="E12">
-        <v>0.03272689311707327</v>
+        <v>0.02064153694658405</v>
       </c>
       <c r="F12">
-        <v>-0.004963137869286098</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.004216567157185401</v>
+      </c>
+      <c r="G12">
+        <v>-0.01043157653350339</v>
+      </c>
+      <c r="H12">
+        <v>0.01789784370869917</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.007245769721965951</v>
+        <v>-0.01380580342260399</v>
       </c>
       <c r="C13">
-        <v>-0.01747068910982132</v>
+        <v>0.02551426133582173</v>
       </c>
       <c r="D13">
-        <v>0.005903855014243898</v>
+        <v>-0.01976387173403735</v>
       </c>
       <c r="E13">
-        <v>0.007206690240973531</v>
+        <v>-0.01414092477440651</v>
       </c>
       <c r="F13">
-        <v>0.06656960449922125</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.00114736525533177</v>
+      </c>
+      <c r="G13">
+        <v>-0.02946350147604284</v>
+      </c>
+      <c r="H13">
+        <v>0.06344288545520223</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.0242985379455895</v>
+        <v>-0.006869059286917304</v>
       </c>
       <c r="C14">
-        <v>0.006307457138926694</v>
+        <v>0.02139229357310277</v>
       </c>
       <c r="D14">
-        <v>0.01055699577024218</v>
+        <v>-0.00549199499752362</v>
       </c>
       <c r="E14">
-        <v>0.01753394384438071</v>
+        <v>0.009551390293527843</v>
       </c>
       <c r="F14">
-        <v>0.04427815316245706</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.02195393214343489</v>
+      </c>
+      <c r="G14">
+        <v>-0.01406463802167777</v>
+      </c>
+      <c r="H14">
+        <v>0.01908603833303304</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.02974494673774021</v>
+        <v>-0.01497097227739072</v>
       </c>
       <c r="C16">
-        <v>-0.0158480288450416</v>
+        <v>0.04367533760500261</v>
       </c>
       <c r="D16">
-        <v>0.04185183018363871</v>
+        <v>0.0025144045703048</v>
       </c>
       <c r="E16">
-        <v>0.0252845225004511</v>
+        <v>0.01036773211094271</v>
       </c>
       <c r="F16">
-        <v>0.02844688684700702</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.001928695802371645</v>
+      </c>
+      <c r="G16">
+        <v>-0.01442887387304603</v>
+      </c>
+      <c r="H16">
+        <v>0.03384205031527206</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.0339697963315606</v>
+        <v>-0.01511936960089135</v>
       </c>
       <c r="C19">
-        <v>-0.01007648277155093</v>
+        <v>0.04519140868222881</v>
       </c>
       <c r="D19">
-        <v>0.02972785363207126</v>
+        <v>-0.009652410018521681</v>
       </c>
       <c r="E19">
-        <v>0.04155141119995047</v>
+        <v>-0.013360102567353</v>
       </c>
       <c r="F19">
-        <v>0.07179786469734871</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>0.02650022283346001</v>
+      </c>
+      <c r="G19">
+        <v>-0.03462591660884841</v>
+      </c>
+      <c r="H19">
+        <v>0.05722253068219055</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.0005493814239657973</v>
+        <v>-0.001643256185315169</v>
       </c>
       <c r="C20">
-        <v>0.0108403082302825</v>
+        <v>0.0219945954734554</v>
       </c>
       <c r="D20">
-        <v>-0.002072004519738697</v>
+        <v>-0.009686452323465817</v>
       </c>
       <c r="E20">
-        <v>0.01334986325054714</v>
+        <v>-0.007470193612788014</v>
       </c>
       <c r="F20">
-        <v>0.04819215328725601</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.01815291570476675</v>
+      </c>
+      <c r="G20">
+        <v>-0.0214606967032426</v>
+      </c>
+      <c r="H20">
+        <v>0.0303667649609024</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.02613724375160618</v>
+        <v>-0.005815876927076802</v>
       </c>
       <c r="C21">
-        <v>0.008963058799803639</v>
+        <v>0.02302317227043641</v>
       </c>
       <c r="D21">
-        <v>0.02361508226152541</v>
+        <v>-0.01227832481101922</v>
       </c>
       <c r="E21">
-        <v>0.01293007098177466</v>
+        <v>-0.006492572440802607</v>
       </c>
       <c r="F21">
-        <v>0.02827723822920139</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.02681077571934556</v>
+      </c>
+      <c r="G21">
+        <v>-0.006156554016380684</v>
+      </c>
+      <c r="H21">
+        <v>0.03381366383135609</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1295,302 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.02308873119612693</v>
+        <v>-0.008460945824588041</v>
       </c>
       <c r="C24">
-        <v>-0.0131945912473529</v>
+        <v>0.0411975851138473</v>
       </c>
       <c r="D24">
-        <v>0.02907374994100804</v>
+        <v>-0.003023726880700697</v>
       </c>
       <c r="E24">
-        <v>0.02247744837885995</v>
+        <v>0.01501688980915686</v>
       </c>
       <c r="F24">
-        <v>0.01670845650023201</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.003568493940228607</v>
+      </c>
+      <c r="G24">
+        <v>-0.01012265516524741</v>
+      </c>
+      <c r="H24">
+        <v>0.03823135956721539</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.03140969764232287</v>
+        <v>-0.02308264188878937</v>
       </c>
       <c r="C25">
-        <v>-0.0138460546808044</v>
+        <v>0.05005785825257563</v>
       </c>
       <c r="D25">
-        <v>0.03316350851529922</v>
+        <v>-0.005777461040668638</v>
       </c>
       <c r="E25">
-        <v>0.01980101438049807</v>
+        <v>0.01954932489967418</v>
       </c>
       <c r="F25">
-        <v>0.02765271449456254</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.001919968302438429</v>
+      </c>
+      <c r="G25">
+        <v>-0.01831886447218935</v>
+      </c>
+      <c r="H25">
+        <v>0.0365281363117972</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.01378489595575053</v>
+        <v>-0.005661854372746096</v>
       </c>
       <c r="C26">
-        <v>-0.002267922232119275</v>
+        <v>0.006567635612230013</v>
       </c>
       <c r="D26">
-        <v>0.01394483783739705</v>
+        <v>-0.02213511103686927</v>
       </c>
       <c r="E26">
-        <v>-0.00948870521808752</v>
+        <v>0.001869050975541122</v>
       </c>
       <c r="F26">
-        <v>0.05266065887428051</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.01016189266540318</v>
+      </c>
+      <c r="G26">
+        <v>-0.001329061328147531</v>
+      </c>
+      <c r="H26">
+        <v>0.01761452244798462</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>-0.02037056243350605</v>
+        <v>-0.005908849294658174</v>
       </c>
       <c r="C27">
-        <v>-7.582782751050204e-07</v>
+        <v>0.005790581780926158</v>
       </c>
       <c r="D27">
-        <v>-0.003370092234536905</v>
+        <v>0.001616077903958955</v>
       </c>
       <c r="E27">
-        <v>0.02755473495433496</v>
+        <v>0.003169616155985613</v>
       </c>
       <c r="F27">
-        <v>0.008806347309134098</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>0.01148132545249171</v>
+      </c>
+      <c r="G27">
+        <v>-0.007673366665709197</v>
+      </c>
+      <c r="H27">
+        <v>-0.005930469030530573</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.0894165132043431</v>
+        <v>-0.1930135710886441</v>
       </c>
       <c r="C28">
-        <v>-0.02058125131760002</v>
+        <v>-0.1749948285826499</v>
       </c>
       <c r="D28">
-        <v>-0.2082788827941445</v>
+        <v>0.01485294888429116</v>
       </c>
       <c r="E28">
-        <v>-0.1031607768477135</v>
+        <v>-0.02442360759028561</v>
       </c>
       <c r="F28">
-        <v>0.04035909196664445</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.03400161103232056</v>
+      </c>
+      <c r="G28">
+        <v>0.02949734029160469</v>
+      </c>
+      <c r="H28">
+        <v>-0.005728703293409729</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.02646012952473758</v>
+        <v>-0.01173584781160132</v>
       </c>
       <c r="C29">
-        <v>0.001874423878621211</v>
+        <v>0.01884752349579901</v>
       </c>
       <c r="D29">
-        <v>0.01006294451974927</v>
+        <v>-0.004398870677707981</v>
       </c>
       <c r="E29">
-        <v>0.02044186781642142</v>
+        <v>0.007016895672687396</v>
       </c>
       <c r="F29">
-        <v>0.04177718298204599</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.02097261909686789</v>
+      </c>
+      <c r="G29">
+        <v>-0.01305225992960788</v>
+      </c>
+      <c r="H29">
+        <v>0.00965095916594853</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.03361369396138467</v>
+        <v>-0.02077158789853524</v>
       </c>
       <c r="C30">
-        <v>-0.05958782889316969</v>
+        <v>0.08613859794549465</v>
       </c>
       <c r="D30">
-        <v>0.05422972017158636</v>
+        <v>-0.02044692999512241</v>
       </c>
       <c r="E30">
-        <v>0.02891712588680578</v>
+        <v>-0.005683443292413588</v>
       </c>
       <c r="F30">
-        <v>0.07917530977412096</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.02454641110641995</v>
+      </c>
+      <c r="G30">
+        <v>-0.04218439062261486</v>
+      </c>
+      <c r="H30">
+        <v>0.06802068360169795</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.04820815951699507</v>
+        <v>-0.0333692221317661</v>
       </c>
       <c r="C31">
-        <v>-0.01991714274641191</v>
+        <v>0.03241504986774248</v>
       </c>
       <c r="D31">
-        <v>0.02046136492288348</v>
+        <v>0.0008946446135863526</v>
       </c>
       <c r="E31">
-        <v>0.02544709914126289</v>
+        <v>0.01294911402831916</v>
       </c>
       <c r="F31">
-        <v>0.03460589246323399</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.0104408839058412</v>
+      </c>
+      <c r="G31">
+        <v>-0.001505610360855321</v>
+      </c>
+      <c r="H31">
+        <v>0.001593468277590573</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.0226971985775282</v>
+        <v>0.001636737074000149</v>
       </c>
       <c r="C32">
-        <v>0.02074959202801711</v>
+        <v>0.01382784165408737</v>
       </c>
       <c r="D32">
-        <v>0.04381226961427611</v>
+        <v>0.008186243799767012</v>
       </c>
       <c r="E32">
-        <v>0.04111853109122421</v>
+        <v>-0.0009683018384065655</v>
       </c>
       <c r="F32">
-        <v>0.04044279089381474</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.04286671571389068</v>
+      </c>
+      <c r="G32">
+        <v>-0.04052955925664121</v>
+      </c>
+      <c r="H32">
+        <v>0.041449899002539</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.02978586217442639</v>
+        <v>-0.01615232276547976</v>
       </c>
       <c r="C33">
-        <v>-0.03347952301871721</v>
+        <v>0.0477091278373552</v>
       </c>
       <c r="D33">
-        <v>0.04511736139701723</v>
+        <v>-0.009330026967252211</v>
       </c>
       <c r="E33">
-        <v>0.009116299430007826</v>
+        <v>-0.00864765305172613</v>
       </c>
       <c r="F33">
-        <v>0.05720644902178711</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.00591249974453187</v>
+      </c>
+      <c r="G33">
+        <v>-0.0009616461833335532</v>
+      </c>
+      <c r="H33">
+        <v>0.04889530690996117</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.03293141403164798</v>
+        <v>-0.02378730224258003</v>
       </c>
       <c r="C34">
-        <v>-0.008019664945710998</v>
+        <v>0.05195248976066956</v>
       </c>
       <c r="D34">
-        <v>0.04064822770960493</v>
+        <v>0.01057952576090189</v>
       </c>
       <c r="E34">
-        <v>0.03209263532560169</v>
+        <v>0.02688133599250494</v>
       </c>
       <c r="F34">
-        <v>0.02024761602695662</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.005520990651303615</v>
+      </c>
+      <c r="G34">
+        <v>-0.01542172863532114</v>
+      </c>
+      <c r="H34">
+        <v>0.03771977328616671</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01928966215203064</v>
+        <v>-0.01201825005385095</v>
       </c>
       <c r="C36">
-        <v>0.00350948161859598</v>
+        <v>0.006845207818432251</v>
       </c>
       <c r="D36">
-        <v>0.002452730212797026</v>
+        <v>-0.008927282033339892</v>
       </c>
       <c r="E36">
-        <v>0.01182206324594459</v>
+        <v>0.002897164219381962</v>
       </c>
       <c r="F36">
-        <v>0.02948620569017101</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.01390069945134367</v>
+      </c>
+      <c r="G36">
+        <v>-0.002537477042080081</v>
+      </c>
+      <c r="H36">
+        <v>0.01188361881268702</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.01173123771172325</v>
+        <v>-0.02502890433356167</v>
       </c>
       <c r="C38">
-        <v>-0.007145395588209463</v>
+        <v>0.02020688299869857</v>
       </c>
       <c r="D38">
-        <v>0.0008716540630165601</v>
+        <v>0.01139569041903483</v>
       </c>
       <c r="E38">
-        <v>-0.02308974646506417</v>
+        <v>0.008414411937560663</v>
       </c>
       <c r="F38">
-        <v>0.04310858866703403</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.0002603742087391099</v>
+      </c>
+      <c r="G38">
+        <v>-0.007233717470809536</v>
+      </c>
+      <c r="H38">
+        <v>0.03170074913008959</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.02253307177829871</v>
+        <v>-0.0002920149508969327</v>
       </c>
       <c r="C39">
-        <v>-0.01242642147553547</v>
+        <v>0.0863664110759472</v>
       </c>
       <c r="D39">
-        <v>0.05666572457988536</v>
+        <v>-0.006975344431867</v>
       </c>
       <c r="E39">
-        <v>0.02693880247712128</v>
+        <v>0.01299589667544939</v>
       </c>
       <c r="F39">
-        <v>0.05062895657929444</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.008912785697534772</v>
+      </c>
+      <c r="G39">
+        <v>-0.02184371020399658</v>
+      </c>
+      <c r="H39">
+        <v>0.07403589280149366</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.01490624146631327</v>
+        <v>-0.0200915898095649</v>
       </c>
       <c r="C40">
-        <v>-0.03978524942541883</v>
+        <v>0.02976365010071483</v>
       </c>
       <c r="D40">
-        <v>0.01816522666966874</v>
+        <v>-0.006971660818872342</v>
       </c>
       <c r="E40">
-        <v>0.02832090939888308</v>
+        <v>-0.0003705789615051778</v>
       </c>
       <c r="F40">
-        <v>0.0257625560719117</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.02202525587767792</v>
+      </c>
+      <c r="G40">
+        <v>-0.02844524774869688</v>
+      </c>
+      <c r="H40">
+        <v>0.04141427192556234</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.01023180668641874</v>
+        <v>-0.01180916508076489</v>
       </c>
       <c r="C41">
-        <v>-0.001405144870609892</v>
+        <v>-0.00787421190299507</v>
       </c>
       <c r="D41">
-        <v>0.00219813852158308</v>
+        <v>-0.00234244902104167</v>
       </c>
       <c r="E41">
-        <v>-0.01397758719950055</v>
+        <v>0.0035391948506755</v>
       </c>
       <c r="F41">
-        <v>0.005029073613856261</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.003882286476507103</v>
+      </c>
+      <c r="G41">
+        <v>0.01116856173603402</v>
+      </c>
+      <c r="H41">
+        <v>-0.004566592597983789</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>-0.2130948449794033</v>
+        <v>-0.06861023436023674</v>
       </c>
       <c r="C42">
-        <v>-0.209342066324171</v>
+        <v>0.2047478175063418</v>
       </c>
       <c r="D42">
-        <v>0.387623343188485</v>
+        <v>-0.1174660773064622</v>
       </c>
       <c r="E42">
-        <v>-0.8068286015056234</v>
+        <v>-0.1036363212865622</v>
       </c>
       <c r="F42">
-        <v>-0.2483680527248043</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>-0.2142693206336003</v>
+      </c>
+      <c r="G42">
+        <v>0.9276565245740259</v>
+      </c>
+      <c r="H42">
+        <v>0.0582543649505316</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.01070380635238147</v>
+        <v>-0.0128785668169764</v>
       </c>
       <c r="C43">
-        <v>-0.003474481218144457</v>
+        <v>-0.004484123081481333</v>
       </c>
       <c r="D43">
-        <v>0.005050204604896952</v>
+        <v>-0.002827864806966354</v>
       </c>
       <c r="E43">
-        <v>-0.0003151438006468958</v>
+        <v>-0.001466095650036599</v>
       </c>
       <c r="F43">
-        <v>0.02564072628454591</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.004054627831150171</v>
+      </c>
+      <c r="G43">
+        <v>0.006436254275585097</v>
+      </c>
+      <c r="H43">
+        <v>0.004869277722324411</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.0227578670792367</v>
+        <v>-0.004870140515390225</v>
       </c>
       <c r="C44">
-        <v>0.01151463350621635</v>
+        <v>0.04003265575746116</v>
       </c>
       <c r="D44">
-        <v>0.02524846751966814</v>
+        <v>-0.003096238399945859</v>
       </c>
       <c r="E44">
-        <v>-0.006515892122977174</v>
+        <v>-0.00343972030794913</v>
       </c>
       <c r="F44">
-        <v>0.08583432143324472</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.02600561530274937</v>
+      </c>
+      <c r="G44">
+        <v>0.00110263231448994</v>
+      </c>
+      <c r="H44">
+        <v>0.05973385146876218</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.01880115535669212</v>
+        <v>-0.003956421697785615</v>
       </c>
       <c r="C46">
-        <v>-0.004857403669535285</v>
+        <v>0.01378354402202334</v>
       </c>
       <c r="D46">
-        <v>0.03774653351033577</v>
+        <v>-0.009713190581834277</v>
       </c>
       <c r="E46">
-        <v>0.02490430185116114</v>
+        <v>0.001424587828388651</v>
       </c>
       <c r="F46">
-        <v>0.06055743444988654</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.0116177170816512</v>
+      </c>
+      <c r="G46">
+        <v>-0.007300120834181798</v>
+      </c>
+      <c r="H46">
+        <v>0.01319978751147883</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.0779793968649455</v>
+        <v>-0.05332691739574767</v>
       </c>
       <c r="C47">
-        <v>-0.03841762567283392</v>
+        <v>0.0677439601907143</v>
       </c>
       <c r="D47">
-        <v>0.01475880707277952</v>
+        <v>0.01175808939946582</v>
       </c>
       <c r="E47">
-        <v>0.03210636145908533</v>
+        <v>0.01830917936469275</v>
       </c>
       <c r="F47">
-        <v>0.004114078413986931</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.006050915685127218</v>
+      </c>
+      <c r="G47">
+        <v>-0.001665909134325146</v>
+      </c>
+      <c r="H47">
+        <v>-0.03707843945142628</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.02066186806500801</v>
+        <v>-0.01251664228979261</v>
       </c>
       <c r="C48">
-        <v>-0.007531731855237917</v>
+        <v>0.01650325540929625</v>
       </c>
       <c r="D48">
-        <v>0.01342821171393884</v>
+        <v>0.0006285077086871701</v>
       </c>
       <c r="E48">
-        <v>0.01060318315666383</v>
+        <v>0.004546086876392529</v>
       </c>
       <c r="F48">
-        <v>0.02820721796107283</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.006138010015932482</v>
+      </c>
+      <c r="G48">
+        <v>-0.004359148645886</v>
+      </c>
+      <c r="H48">
+        <v>0.01647639863409169</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.0859710496872387</v>
+        <v>-0.05495311393923231</v>
       </c>
       <c r="C50">
-        <v>-0.01363811935944866</v>
+        <v>0.06393539116420176</v>
       </c>
       <c r="D50">
-        <v>0.03122443547586459</v>
+        <v>0.009815842528454164</v>
       </c>
       <c r="E50">
-        <v>0.02303723213888321</v>
+        <v>0.01943441173809097</v>
       </c>
       <c r="F50">
-        <v>0.01970495919007323</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.02820110233269582</v>
+      </c>
+      <c r="G50">
+        <v>0.005512019956690763</v>
+      </c>
+      <c r="H50">
+        <v>-0.02606615406695318</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.0188099097487823</v>
+        <v>-0.01450340668217038</v>
       </c>
       <c r="C51">
-        <v>0.00176034595696134</v>
+        <v>0.01660046132500902</v>
       </c>
       <c r="D51">
-        <v>-0.007473575904173</v>
+        <v>-0.004373789305889348</v>
       </c>
       <c r="E51">
-        <v>0.00484551004716682</v>
+        <v>0.007732798427860146</v>
       </c>
       <c r="F51">
-        <v>0.09272973156760553</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.01395271488074665</v>
+      </c>
+      <c r="G51">
+        <v>-0.01015159281540569</v>
+      </c>
+      <c r="H51">
+        <v>0.04645279572086298</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.09325146593966442</v>
+        <v>-0.0692764000358323</v>
       </c>
       <c r="C53">
-        <v>-0.04089486414163995</v>
+        <v>0.102002912325794</v>
       </c>
       <c r="D53">
-        <v>0.04365862422164633</v>
+        <v>0.01366204295136552</v>
       </c>
       <c r="E53">
-        <v>0.0541663417708655</v>
+        <v>0.04636583034247112</v>
       </c>
       <c r="F53">
-        <v>-0.03747440861072041</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.00407150123332</v>
+      </c>
+      <c r="G53">
+        <v>-0.003706469774392278</v>
+      </c>
+      <c r="H53">
+        <v>-0.04350104144120721</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.02836570556958391</v>
+        <v>-0.02265266874399902</v>
       </c>
       <c r="C54">
-        <v>0.001631425062224702</v>
+        <v>0.002204671463589264</v>
       </c>
       <c r="D54">
-        <v>-0.00597523632485546</v>
+        <v>0.006745944238150794</v>
       </c>
       <c r="E54">
-        <v>0.02402064447923647</v>
+        <v>-0.002407323381376974</v>
       </c>
       <c r="F54">
-        <v>0.02736712922555715</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.02185022800949703</v>
+      </c>
+      <c r="G54">
+        <v>-0.01043916018340644</v>
+      </c>
+      <c r="H54">
+        <v>0.006463560598520534</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.08051086063930771</v>
+        <v>-0.04894046386353897</v>
       </c>
       <c r="C55">
-        <v>-0.03321772565010427</v>
+        <v>0.08971930409914626</v>
       </c>
       <c r="D55">
-        <v>0.05149858332068146</v>
+        <v>0.0109117586543513</v>
       </c>
       <c r="E55">
-        <v>0.03658033345707879</v>
+        <v>0.0345569072755167</v>
       </c>
       <c r="F55">
-        <v>-0.03015335521024502</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.00217311698996068</v>
+      </c>
+      <c r="G55">
+        <v>0.002200641144117229</v>
+      </c>
+      <c r="H55">
+        <v>-0.04179781810283432</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1293931159467398</v>
+        <v>-0.09477210670958212</v>
       </c>
       <c r="C56">
-        <v>-0.06592750277834485</v>
+        <v>0.1337766618951237</v>
       </c>
       <c r="D56">
-        <v>0.03259190135739081</v>
+        <v>0.02348648877760863</v>
       </c>
       <c r="E56">
-        <v>0.07059800526122124</v>
+        <v>0.04639193553443779</v>
       </c>
       <c r="F56">
-        <v>-0.07178796124948962</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.009478450357533977</v>
+      </c>
+      <c r="G56">
+        <v>-0.01146512570959973</v>
+      </c>
+      <c r="H56">
+        <v>-0.08673512238476233</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>-0.03523411371846478</v>
+        <v>-0.02081437215833026</v>
       </c>
       <c r="C57">
-        <v>-0.01728778076201175</v>
+        <v>0.03119058332599095</v>
       </c>
       <c r="D57">
-        <v>0.02461736982899397</v>
+        <v>-0.02153955589347691</v>
       </c>
       <c r="E57">
-        <v>-0.03760151516852552</v>
+        <v>-0.02730291436451647</v>
       </c>
       <c r="F57">
-        <v>0.05659755397118883</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>0.02120453927876986</v>
+      </c>
+      <c r="G57">
+        <v>-0.004361252181271691</v>
+      </c>
+      <c r="H57">
+        <v>0.0634158706044598</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.1562810400444514</v>
+        <v>-0.07217753763993107</v>
       </c>
       <c r="C58">
-        <v>-0.2029906488926427</v>
+        <v>0.2531118436593947</v>
       </c>
       <c r="D58">
-        <v>0.1808191093817195</v>
+        <v>-4.246509290492493e-05</v>
       </c>
       <c r="E58">
-        <v>0.0257094539342398</v>
+        <v>-0.9164161301335673</v>
       </c>
       <c r="F58">
-        <v>0.6170059402648097</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.2072555623382274</v>
+      </c>
+      <c r="G58">
+        <v>-0.1122096334695777</v>
+      </c>
+      <c r="H58">
+        <v>-0.09139869753989273</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.07323102153236175</v>
+        <v>-0.2109663645131854</v>
       </c>
       <c r="C59">
-        <v>-0.04230216311568542</v>
+        <v>-0.1600573069668324</v>
       </c>
       <c r="D59">
-        <v>-0.1793482124872007</v>
+        <v>0.02304627266729282</v>
       </c>
       <c r="E59">
-        <v>-0.05689767138865129</v>
+        <v>-0.02784787473928362</v>
       </c>
       <c r="F59">
-        <v>0.06756059264489533</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.007637960384549058</v>
+      </c>
+      <c r="G59">
+        <v>-0.002497008839583071</v>
+      </c>
+      <c r="H59">
+        <v>0.01798253032750105</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.1447983692395701</v>
+        <v>-0.2294490109463344</v>
       </c>
       <c r="C60">
-        <v>-0.1062250017486114</v>
+        <v>0.09854542257686895</v>
       </c>
       <c r="D60">
-        <v>0.001054098822149301</v>
+        <v>0.01334908970523429</v>
       </c>
       <c r="E60">
-        <v>-0.02139786451381612</v>
+        <v>0.03708876034191894</v>
       </c>
       <c r="F60">
-        <v>0.1500386185755548</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.09762381337720562</v>
+      </c>
+      <c r="G60">
+        <v>-0.1109799542076623</v>
+      </c>
+      <c r="H60">
+        <v>0.3918538613932365</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.02208490438751827</v>
+        <v>-0.01045228279855106</v>
       </c>
       <c r="C61">
-        <v>-0.009835534515136591</v>
+        <v>0.06361466400745326</v>
       </c>
       <c r="D61">
-        <v>0.04059705489270287</v>
+        <v>-0.0003728040556441727</v>
       </c>
       <c r="E61">
-        <v>0.01302062317121915</v>
+        <v>0.01455009702832727</v>
       </c>
       <c r="F61">
-        <v>0.01983583390126877</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.0001646823360123004</v>
+      </c>
+      <c r="G61">
+        <v>-0.02159926233019768</v>
+      </c>
+      <c r="H61">
+        <v>0.05578389631981243</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.01655392744824973</v>
+        <v>-0.005392491663622652</v>
       </c>
       <c r="C63">
-        <v>-0.002527062423476572</v>
+        <v>0.02148230250527252</v>
       </c>
       <c r="D63">
-        <v>0.01798542777554895</v>
+        <v>-0.005829606131978827</v>
       </c>
       <c r="E63">
-        <v>0.005923349203454877</v>
+        <v>0.01680847537389587</v>
       </c>
       <c r="F63">
-        <v>0.007340997637174509</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.008616319256379734</v>
+      </c>
+      <c r="G63">
+        <v>-0.006578782354038777</v>
+      </c>
+      <c r="H63">
+        <v>0.01312544601128063</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.04150572227228225</v>
+        <v>-0.03369887761515356</v>
       </c>
       <c r="C64">
-        <v>-0.003687482962031598</v>
+        <v>0.04496922437416177</v>
       </c>
       <c r="D64">
-        <v>0.02611739263421876</v>
+        <v>0.000421056976945801</v>
       </c>
       <c r="E64">
-        <v>0.02319927538150611</v>
+        <v>0.0267607057502652</v>
       </c>
       <c r="F64">
-        <v>0.01672173330995422</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.002640481174891234</v>
+      </c>
+      <c r="G64">
+        <v>0.00387598515615685</v>
+      </c>
+      <c r="H64">
+        <v>0.03350263893779998</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.04016417831826519</v>
+        <v>-0.03977481877523643</v>
       </c>
       <c r="C65">
-        <v>-0.01298156351758424</v>
+        <v>0.08352601044695207</v>
       </c>
       <c r="D65">
-        <v>0.04181484378144813</v>
+        <v>-0.009453650597615814</v>
       </c>
       <c r="E65">
-        <v>0.03126721632582277</v>
+        <v>0.03668357710614408</v>
       </c>
       <c r="F65">
-        <v>0.01318910353837092</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.0115407326662072</v>
+      </c>
+      <c r="G65">
+        <v>-0.03953585672614528</v>
+      </c>
+      <c r="H65">
+        <v>0.06171755650456272</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.03294466367731877</v>
+        <v>-0.008712531359307933</v>
       </c>
       <c r="C66">
-        <v>-0.02617112661470962</v>
+        <v>0.117330238709055</v>
       </c>
       <c r="D66">
-        <v>0.06045643903891572</v>
+        <v>-0.003382326832385367</v>
       </c>
       <c r="E66">
-        <v>0.05627083750808754</v>
+        <v>0.01821352394392948</v>
       </c>
       <c r="F66">
-        <v>0.03452854401304688</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.01571634317334819</v>
+      </c>
+      <c r="G66">
+        <v>-0.0466228747292123</v>
+      </c>
+      <c r="H66">
+        <v>0.07709859891347515</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.02472845357113946</v>
+        <v>-0.04932729671286788</v>
       </c>
       <c r="C67">
-        <v>-0.01496094981387384</v>
+        <v>0.0295438483611185</v>
       </c>
       <c r="D67">
-        <v>-0.008518752444862346</v>
+        <v>0.01195148531095152</v>
       </c>
       <c r="E67">
-        <v>-0.01697388098190804</v>
+        <v>0.01540839775365588</v>
       </c>
       <c r="F67">
-        <v>0.02627085109882624</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.004096359407976831</v>
+      </c>
+      <c r="G67">
+        <v>-0.01481268112786449</v>
+      </c>
+      <c r="H67">
+        <v>0.0304942182046929</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.0823954437132204</v>
+        <v>-0.2126299545382608</v>
       </c>
       <c r="C68">
-        <v>-0.03332427437913271</v>
+        <v>-0.2010895989945246</v>
       </c>
       <c r="D68">
-        <v>-0.2042156943963629</v>
+        <v>0.003330949574341942</v>
       </c>
       <c r="E68">
-        <v>-0.07321799941706802</v>
+        <v>-0.04290061374522727</v>
       </c>
       <c r="F68">
-        <v>0.06238692967129494</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.02523645613309293</v>
+      </c>
+      <c r="G68">
+        <v>0.03798883948170641</v>
+      </c>
+      <c r="H68">
+        <v>-0.02826566457953284</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.06184580580327293</v>
+        <v>-0.05318187557030519</v>
       </c>
       <c r="C69">
-        <v>-0.03068950911887021</v>
+        <v>0.06225417405559793</v>
       </c>
       <c r="D69">
-        <v>0.01311362862950831</v>
+        <v>0.01587949013158253</v>
       </c>
       <c r="E69">
-        <v>0.03519674939464558</v>
+        <v>0.03072903246854022</v>
       </c>
       <c r="F69">
-        <v>0.005883440128784273</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.001977092779804908</v>
+      </c>
+      <c r="G69">
+        <v>-0.01495410311292684</v>
+      </c>
+      <c r="H69">
+        <v>-0.009122669134798565</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.08273145185415572</v>
+        <v>-0.1867536328956822</v>
       </c>
       <c r="C71">
-        <v>-0.03842422968934108</v>
+        <v>-0.1564189931566501</v>
       </c>
       <c r="D71">
-        <v>-0.1996824697781855</v>
+        <v>0.00954368595366587</v>
       </c>
       <c r="E71">
-        <v>-0.1117460162298627</v>
+        <v>-0.04384320166067576</v>
       </c>
       <c r="F71">
-        <v>0.06376497717770326</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.0226663757601348</v>
+      </c>
+      <c r="G71">
+        <v>0.04376311935952473</v>
+      </c>
+      <c r="H71">
+        <v>-0.007243046085266502</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.09846660085481103</v>
+        <v>-0.05226715082578749</v>
       </c>
       <c r="C72">
-        <v>-0.05957758602917712</v>
+        <v>0.1036013710516227</v>
       </c>
       <c r="D72">
-        <v>0.0744435192474813</v>
+        <v>0.01775970607673798</v>
       </c>
       <c r="E72">
-        <v>0.08971262210520085</v>
+        <v>0.04291058426636418</v>
       </c>
       <c r="F72">
-        <v>0.1025815643940403</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.02521119264061283</v>
+      </c>
+      <c r="G72">
+        <v>-0.06131534835374689</v>
+      </c>
+      <c r="H72">
+        <v>0.08434051913538103</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.1688875593417187</v>
+        <v>-0.2913692432744545</v>
       </c>
       <c r="C73">
-        <v>-0.1737065869105767</v>
+        <v>0.160615974172506</v>
       </c>
       <c r="D73">
-        <v>0.01930471382230413</v>
+        <v>0.01277431138562305</v>
       </c>
       <c r="E73">
-        <v>-0.04474102123038079</v>
+        <v>0.03275895337279332</v>
       </c>
       <c r="F73">
-        <v>0.1748021566374627</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.1530393610935312</v>
+      </c>
+      <c r="G73">
+        <v>-0.1175195840095298</v>
+      </c>
+      <c r="H73">
+        <v>0.4637159159984874</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1177198509380086</v>
+        <v>-0.09241605128928912</v>
       </c>
       <c r="C74">
-        <v>-0.05931927405612916</v>
+        <v>0.1356218559786985</v>
       </c>
       <c r="D74">
-        <v>0.03755403156959082</v>
+        <v>0.02341054337548017</v>
       </c>
       <c r="E74">
-        <v>0.0529482122034988</v>
+        <v>0.0509609748419623</v>
       </c>
       <c r="F74">
-        <v>-0.07313949307708512</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.005715448608090182</v>
+      </c>
+      <c r="G74">
+        <v>-0.007831104029079071</v>
+      </c>
+      <c r="H74">
+        <v>-0.05786792672144055</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2122368968782612</v>
+        <v>-0.1968182702903973</v>
       </c>
       <c r="C75">
-        <v>-0.1271028862012588</v>
+        <v>0.2294975966421421</v>
       </c>
       <c r="D75">
-        <v>0.03754729966256098</v>
+        <v>0.04911106373396875</v>
       </c>
       <c r="E75">
-        <v>0.164536857756743</v>
+        <v>0.07787299942739584</v>
       </c>
       <c r="F75">
-        <v>-0.1154368277689563</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.03229126102736673</v>
+      </c>
+      <c r="G75">
+        <v>-0.04169410200329199</v>
+      </c>
+      <c r="H75">
+        <v>-0.1868143661587968</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.2546863737016885</v>
+        <v>-0.1401846839297906</v>
       </c>
       <c r="C76">
-        <v>-0.1043662049493165</v>
+        <v>0.1954898232537526</v>
       </c>
       <c r="D76">
-        <v>0.03999435594028347</v>
+        <v>0.04168485059457856</v>
       </c>
       <c r="E76">
-        <v>0.1847990020573454</v>
+        <v>0.1011254251700592</v>
       </c>
       <c r="F76">
-        <v>-0.2077150597141953</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.007743656881124317</v>
+      </c>
+      <c r="G76">
+        <v>-0.02183606410182557</v>
+      </c>
+      <c r="H76">
+        <v>-0.156006755607654</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.09378757565692598</v>
+        <v>-0.04342388012340361</v>
       </c>
       <c r="C77">
-        <v>-0.05885290440274287</v>
+        <v>0.08938630400593814</v>
       </c>
       <c r="D77">
-        <v>0.07903393798176979</v>
+        <v>-0.006727371677291181</v>
       </c>
       <c r="E77">
-        <v>-0.04130480145984407</v>
+        <v>-0.02254697041561229</v>
       </c>
       <c r="F77">
-        <v>0.09434496751855752</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.01503994942825243</v>
+      </c>
+      <c r="G77">
+        <v>0.01777163307199139</v>
+      </c>
+      <c r="H77">
+        <v>0.01696521161774862</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.05174135482021379</v>
+        <v>-0.01984349791922063</v>
       </c>
       <c r="C78">
-        <v>-0.01180396953220178</v>
+        <v>0.07532812478217721</v>
       </c>
       <c r="D78">
-        <v>0.09281234689484613</v>
+        <v>-0.001551373529989881</v>
       </c>
       <c r="E78">
-        <v>0.03653081971654443</v>
+        <v>0.001692692509845441</v>
       </c>
       <c r="F78">
-        <v>0.08222439844454474</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.01521273645839907</v>
+      </c>
+      <c r="G78">
+        <v>-0.02326180858163208</v>
+      </c>
+      <c r="H78">
+        <v>0.0822481377219617</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,90 +2751,120 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.5382848333845552</v>
+        <v>-0.09354298075666342</v>
       </c>
       <c r="C80">
-        <v>0.8188139977992759</v>
+        <v>0.1129352145067942</v>
       </c>
       <c r="D80">
-        <v>0.05328504315345818</v>
+        <v>0.004970125000469628</v>
       </c>
       <c r="E80">
-        <v>-0.06854153169613843</v>
+        <v>0.2227320845688461</v>
       </c>
       <c r="F80">
-        <v>0.05261785217311145</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.9115118431909811</v>
+      </c>
+      <c r="G80">
+        <v>0.1964737029583415</v>
+      </c>
+      <c r="H80">
+        <v>0.1132025135492919</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1701445769019435</v>
+        <v>-0.1227450001102108</v>
       </c>
       <c r="C81">
-        <v>-0.08315268876589832</v>
+        <v>0.1464664619406896</v>
       </c>
       <c r="D81">
-        <v>0.01704605169012793</v>
+        <v>0.03005951567218365</v>
       </c>
       <c r="E81">
-        <v>0.1225389816000002</v>
+        <v>0.05452916485592859</v>
       </c>
       <c r="F81">
-        <v>-0.09239259755022693</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.0006677853725493589</v>
+      </c>
+      <c r="G81">
+        <v>-0.01855899336259393</v>
+      </c>
+      <c r="H81">
+        <v>-0.1152630664536557</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.002548470068177918</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-0.0009805665680446909</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.0004687929818937576</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>0.01170914199549053</v>
       </c>
       <c r="F82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>-0.004120898307760058</v>
+      </c>
+      <c r="G82">
+        <v>0.0005230106673191719</v>
+      </c>
+      <c r="H82">
+        <v>0.002722821631506824</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.03463095941465724</v>
+        <v>-0.02233122068824218</v>
       </c>
       <c r="C83">
-        <v>-0.02343611240624761</v>
+        <v>0.02377448401910056</v>
       </c>
       <c r="D83">
-        <v>0.02047749240411478</v>
+        <v>-0.002361967823272451</v>
       </c>
       <c r="E83">
-        <v>-0.02047156469034962</v>
+        <v>-0.01575508411918181</v>
       </c>
       <c r="F83">
-        <v>0.05276376764767632</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0.008318641784742991</v>
+      </c>
+      <c r="G83">
+        <v>-0.001714881274027486</v>
+      </c>
+      <c r="H83">
+        <v>0.04103351950612225</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.2285846483453953</v>
+        <v>-0.1782432762042696</v>
       </c>
       <c r="C85">
-        <v>-0.1261023783531162</v>
+        <v>0.2136144788954096</v>
       </c>
       <c r="D85">
-        <v>0.04249204144655281</v>
+        <v>0.03413265128708853</v>
       </c>
       <c r="E85">
-        <v>0.1643455793777902</v>
+        <v>0.1033367601898988</v>
       </c>
       <c r="F85">
-        <v>-0.16299499006482</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.05385046322501472</v>
+      </c>
+      <c r="G85">
+        <v>-0.02460997757685609</v>
+      </c>
+      <c r="H85">
+        <v>-0.1290776836239498</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.0009321973443754144</v>
+        <v>-0.007586983393356123</v>
       </c>
       <c r="C86">
-        <v>0.005468358679864571</v>
+        <v>0.03319296143308104</v>
       </c>
       <c r="D86">
-        <v>0.0465000205932944</v>
+        <v>-0.006268298157500874</v>
       </c>
       <c r="E86">
-        <v>-0.003264134763641463</v>
+        <v>0.001952404739275621</v>
       </c>
       <c r="F86">
-        <v>0.0705619325729471</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.01102667862425688</v>
+      </c>
+      <c r="G86">
+        <v>0.0112701812093265</v>
+      </c>
+      <c r="H86">
+        <v>0.07199962380872682</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.02514073241567098</v>
+        <v>-0.001014889582334538</v>
       </c>
       <c r="C87">
-        <v>-0.008107757100181622</v>
+        <v>0.04201850565783603</v>
       </c>
       <c r="D87">
-        <v>0.03817047097981247</v>
+        <v>-0.007802303119164509</v>
       </c>
       <c r="E87">
-        <v>0.009044138085143753</v>
+        <v>-0.03622612874934668</v>
       </c>
       <c r="F87">
-        <v>0.09170595014985115</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.02649484731198003</v>
+      </c>
+      <c r="G87">
+        <v>-0.01772078871783183</v>
+      </c>
+      <c r="H87">
+        <v>0.08211025745256242</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.02412847647099266</v>
+        <v>-0.0426197565293723</v>
       </c>
       <c r="C88">
-        <v>0.00238057354250535</v>
+        <v>0.02056828506837838</v>
       </c>
       <c r="D88">
-        <v>-0.003526590061608457</v>
+        <v>-0.01680762105372856</v>
       </c>
       <c r="E88">
-        <v>0.001797134403948536</v>
+        <v>0.01634379144295578</v>
       </c>
       <c r="F88">
-        <v>-0.02358218855822916</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.01457156102342359</v>
+      </c>
+      <c r="G88">
+        <v>-0.006070985593648005</v>
+      </c>
+      <c r="H88">
+        <v>-0.0004301171900108576</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.1346936612056885</v>
+        <v>-0.3303693157135986</v>
       </c>
       <c r="C89">
-        <v>-0.08953458119648072</v>
+        <v>-0.2799013401473657</v>
       </c>
       <c r="D89">
-        <v>-0.3512777176041714</v>
+        <v>0.01623855917052799</v>
       </c>
       <c r="E89">
-        <v>-0.09072905641786326</v>
+        <v>-0.03702402273789657</v>
       </c>
       <c r="F89">
-        <v>0.07973119667924294</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>-0.006497169491654751</v>
+      </c>
+      <c r="G89">
+        <v>0.02055566883049318</v>
+      </c>
+      <c r="H89">
+        <v>-0.0213362489609283</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.1048403795443525</v>
+        <v>-0.2743475304756228</v>
       </c>
       <c r="C90">
-        <v>-0.03890942801526924</v>
+        <v>-0.2579561746730094</v>
       </c>
       <c r="D90">
-        <v>-0.3366036297271256</v>
+        <v>0.01552759367226735</v>
       </c>
       <c r="E90">
-        <v>-0.1105580954983</v>
+        <v>-0.04206250111148067</v>
       </c>
       <c r="F90">
-        <v>0.0160493600483206</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.02270557017508837</v>
+      </c>
+      <c r="G90">
+        <v>0.04779097249261473</v>
+      </c>
+      <c r="H90">
+        <v>-0.055918250682353</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.2562437920415858</v>
+        <v>-0.1841923462493344</v>
       </c>
       <c r="C91">
-        <v>-0.1600060094862965</v>
+        <v>0.2042065056365672</v>
       </c>
       <c r="D91">
-        <v>0.05761674056141123</v>
+        <v>0.04549992723713966</v>
       </c>
       <c r="E91">
-        <v>0.1469099970750231</v>
+        <v>0.08673847760266359</v>
       </c>
       <c r="F91">
-        <v>-0.2280459559603705</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.04221841415550122</v>
+      </c>
+      <c r="G91">
+        <v>-0.01558116983389875</v>
+      </c>
+      <c r="H91">
+        <v>-0.1954192325533405</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.162558477575859</v>
+        <v>-0.2801826039269095</v>
       </c>
       <c r="C92">
-        <v>-0.07939727954263245</v>
+        <v>-0.1767161654882852</v>
       </c>
       <c r="D92">
-        <v>-0.4143527323811013</v>
+        <v>0.05978537517130669</v>
       </c>
       <c r="E92">
-        <v>-0.04773355114344191</v>
+        <v>-0.04265779720729736</v>
       </c>
       <c r="F92">
-        <v>-0.1131650361476061</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.04119000001635777</v>
+      </c>
+      <c r="G92">
+        <v>0.02165567404130041</v>
+      </c>
+      <c r="H92">
+        <v>-0.1468270571419013</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.1142012650135795</v>
+        <v>-0.308748446745907</v>
       </c>
       <c r="C93">
-        <v>-0.09260721464143037</v>
+        <v>-0.2481955951986372</v>
       </c>
       <c r="D93">
-        <v>-0.3825178255208802</v>
+        <v>0.02485162205211188</v>
       </c>
       <c r="E93">
-        <v>-0.1717714670477049</v>
+        <v>-0.05884761730926097</v>
       </c>
       <c r="F93">
-        <v>0.0268116089464131</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>-0.01611473671380039</v>
+      </c>
+      <c r="G93">
+        <v>0.04617413247143524</v>
+      </c>
+      <c r="H93">
+        <v>0.007015168367278409</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.2717264750860651</v>
+        <v>-0.2255203192403527</v>
       </c>
       <c r="C94">
-        <v>-0.1867609639223813</v>
+        <v>0.2328192403085992</v>
       </c>
       <c r="D94">
-        <v>0.01189359399486392</v>
+        <v>0.03589527454026371</v>
       </c>
       <c r="E94">
-        <v>0.2415815335143505</v>
+        <v>0.1108229926969759</v>
       </c>
       <c r="F94">
-        <v>-0.1413385938264823</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>-0.08015487965984577</v>
+      </c>
+      <c r="G94">
+        <v>-0.09464341523940661</v>
+      </c>
+      <c r="H94">
+        <v>-0.4462916157725594</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.02762003116180732</v>
+        <v>-0.03239089315480244</v>
       </c>
       <c r="C95">
-        <v>-0.1042499549712355</v>
+        <v>0.1073943144726735</v>
       </c>
       <c r="D95">
-        <v>0.03955099618320468</v>
+        <v>0.01314194944948994</v>
       </c>
       <c r="E95">
-        <v>0.03401565143509198</v>
+        <v>-0.0419003387455813</v>
       </c>
       <c r="F95">
-        <v>0.008176640841258829</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.07823085352911191</v>
+      </c>
+      <c r="G95">
+        <v>-0.01318751527672334</v>
+      </c>
+      <c r="H95">
+        <v>0.06019098228227033</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1425622856554057</v>
+        <v>-0.186102843717638</v>
       </c>
       <c r="C98">
-        <v>-0.1147751428417249</v>
+        <v>0.0794119129274935</v>
       </c>
       <c r="D98">
-        <v>-0.01197586834184687</v>
+        <v>0.03438867745180877</v>
       </c>
       <c r="E98">
-        <v>-0.07292156998484686</v>
+        <v>-0.02118119219248549</v>
       </c>
       <c r="F98">
-        <v>0.1554375265345785</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.06570767717732208</v>
+      </c>
+      <c r="G98">
+        <v>-0.03612742863781246</v>
+      </c>
+      <c r="H98">
+        <v>0.3320697043798959</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.01162798197738242</v>
+        <v>-0.005608721809949774</v>
       </c>
       <c r="C101">
-        <v>0.002080973818168574</v>
+        <v>0.02015762052517785</v>
       </c>
       <c r="D101">
-        <v>0.03403390475938826</v>
+        <v>-0.005311564252249432</v>
       </c>
       <c r="E101">
-        <v>0.03297986543998301</v>
+        <v>-0.03158652214008188</v>
       </c>
       <c r="F101">
-        <v>0.182820175522003</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.03342017602502616</v>
+      </c>
+      <c r="G101">
+        <v>-0.02806366255451775</v>
+      </c>
+      <c r="H101">
+        <v>0.01153569627840725</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.1159143775134193</v>
+        <v>-0.09276718870562307</v>
       </c>
       <c r="C102">
-        <v>-0.0638283756786017</v>
+        <v>0.1077714869724119</v>
       </c>
       <c r="D102">
-        <v>0.02111004958252994</v>
+        <v>0.01042848091921558</v>
       </c>
       <c r="E102">
-        <v>0.08386783517709631</v>
+        <v>0.05547019289733873</v>
       </c>
       <c r="F102">
-        <v>-0.09275459118592218</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>-0.02453928517951981</v>
+      </c>
+      <c r="G102">
+        <v>-0.01942458236988273</v>
+      </c>
+      <c r="H102">
+        <v>-0.07266709587455725</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>-0.04019828998426399</v>
+        <v>-0.009662142299109843</v>
       </c>
       <c r="C103">
-        <v>-0.004921973505449129</v>
+        <v>0.0149734377188825</v>
       </c>
       <c r="D103">
-        <v>0.01424259686394013</v>
+        <v>0.001634187086005612</v>
       </c>
       <c r="E103">
-        <v>0.03738668846277028</v>
+        <v>0.005445731785301081</v>
       </c>
       <c r="F103">
-        <v>-0.005589887999973393</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>0.01480071579505848</v>
+      </c>
+      <c r="G103">
+        <v>-0.002732358887724627</v>
+      </c>
+      <c r="H103">
+        <v>-0.01045063632523291</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.1027783631322463</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-0.001311626278944342</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.9806680813802496</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.03399548986013762</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.01627375142418971</v>
+      </c>
+      <c r="G104">
+        <v>-0.1156808694815813</v>
+      </c>
+      <c r="H104">
+        <v>-0.05936964563650064</v>
       </c>
     </row>
   </sheetData>
